--- a/InputData/indst/CESTR/Capital Eqpt Sales Tax Rate.xlsx
+++ b/InputData/indst/CESTR/Capital Eqpt Sales Tax Rate.xlsx
@@ -1,76 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\InputData\indst\CESTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\CESTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_880BACC38CD3087BC32C3E671C64A51CE78AA2E5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A5AD9BF8-191B-4D5A-A4B2-CFC86FA802F7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CESTR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>The Sales Tax Clearinghouse</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>https://thestc.com/FAQ.stm</t>
+  </si>
+  <si>
+    <t>Question "What is the average sales tax nationally?"</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
   <si>
     <t>CESTR Capital Eqpt Sales Tax Rate</t>
   </si>
   <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>The Sales Tax Clearinghouse</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>FAQ</t>
-  </si>
-  <si>
-    <t>https://thestc.com/FAQ.stm</t>
-  </si>
-  <si>
-    <t>Question "What is the average sales tax nationally?"</t>
-  </si>
-  <si>
-    <t>Note:</t>
-  </si>
-  <si>
     <t>We are using the national average sales tax rate.</t>
   </si>
   <si>
-    <t>Tax Rate</t>
-  </si>
-  <si>
     <t>Capital Eqpt</t>
   </si>
   <si>
-    <t>according to July 2019 workshop, set 0 to hong kong</t>
+    <t>Tax Rate (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +79,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,14 +105,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -225,23 +206,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -277,23 +241,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,103 +416,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="51.85546875" customWidth="1"/>
+    <col min="2" max="2" width="51.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.73046875" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
       <c r="B2">
-        <v>0</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
   </sheetData>
@@ -574,24 +513,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -825,32 +746,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEAE1708-459B-4C8D-AAF4-6EDFD68C2A0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EDE2BD-A1A9-47FA-9BB3-2EF5069B1EC9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EBF552C-4312-4BA6-9171-ACD349A9C0C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA231DF4-B11C-4364-8B19-478A2A059BC8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A65CDD51-88D7-47B8-9C3D-84E617B337D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69695201-90DC-4D96-844F-829B785654A5}"/>
 </file>
--- a/InputData/indst/CESTR/Capital Eqpt Sales Tax Rate.xlsx
+++ b/InputData/indst/CESTR/Capital Eqpt Sales Tax Rate.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\CESTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\InputData\indst\CESTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_880BACC38CD3087BC32C3E671C64A51CE78AA2E5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A5AD9BF8-191B-4D5A-A4B2-CFC86FA802F7}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CESTR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+  <si>
+    <t>CESTR Capital Eqpt Sales Tax Rate</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
@@ -43,23 +54,23 @@
     <t>Note:</t>
   </si>
   <si>
-    <t>CESTR Capital Eqpt Sales Tax Rate</t>
-  </si>
-  <si>
     <t>We are using the national average sales tax rate.</t>
   </si>
   <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
     <t>Capital Eqpt</t>
   </si>
   <si>
-    <t>Tax Rate (dimensionless)</t>
+    <t>according to July 2019 workshop, set 0 to hong kong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +90,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,13 +123,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -206,6 +225,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -241,6 +277,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,95 +469,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.86328125" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.73046875" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
       <c r="B2">
-        <v>6.8000000000000005E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -513,6 +574,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -746,32 +825,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EDE2BD-A1A9-47FA-9BB3-2EF5069B1EC9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEAE1708-459B-4C8D-AAF4-6EDFD68C2A0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA231DF4-B11C-4364-8B19-478A2A059BC8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EBF552C-4312-4BA6-9171-ACD349A9C0C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69695201-90DC-4D96-844F-829B785654A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40610248-F96A-4973-AFC8-26D8C517097E}"/>
 </file>